--- a/va_facility_data_2025-02-20/West Haven VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''West%20Haven%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/West Haven VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''West%20Haven%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R88db3a0e95634c1385a1eb1268714d42"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R104fe27c688a404ab7da73d7b800e1f9"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rc08ed690d34247228edf36c6bc0d38bc"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R1d0e2b34b64c449ab69cecb32816777f"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rbdfa678fa589454f8bfc6706fa1e889b"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Raa40ed4db69946be96d29231eb9fd7a2"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R010162ce1cf24e4fbda2579f8d8a9291"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R6c816053b00b4d21a54c28ca1bc784f9"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R15de6fee15114370a11560e7ebafb8b3"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R4456fd8b0f3145cdb00e9aa14283a452"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R72323ead55d4418a8ed29ce3b2017282"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rf259b987327f4064814a5b8605278e26"/>
   </x:sheets>
 </x:workbook>
 </file>
